--- a/notebook.xlsx
+++ b/notebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Yolo_mkl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA473D2-8F80-44E0-99D4-3E0DDDAC7AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B15861A-12DC-4E02-B64A-30FB3771281C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -18937,6 +18937,213 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3233</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="立方体 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62EBF50A-D642-4562-B3E2-43CE8C89816C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9883140" y="2598420"/>
+          <a:ext cx="373380" cy="384233"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 36375"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>3x3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>148013</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="立方体 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7197260A-AB91-45A8-99C4-2B8486445A6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9738360" y="2743200"/>
+          <a:ext cx="373380" cy="384233"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 36375"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>3x3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>109913</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="立方体 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A8C75B-2419-4D17-AF3E-E62CD165FDB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="2880360"/>
+          <a:ext cx="373380" cy="384233"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 36375"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>3x3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>144783</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -18961,8 +19168,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2583183" y="2267530"/>
-          <a:ext cx="1029707" cy="833812"/>
+          <a:off x="2583183" y="2254467"/>
+          <a:ext cx="1029707" cy="828369"/>
           <a:chOff x="7734300" y="2811780"/>
           <a:chExt cx="1562100" cy="1264920"/>
         </a:xfrm>
@@ -19104,8 +19311,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2369823" y="2473270"/>
-          <a:ext cx="1029707" cy="833812"/>
+          <a:off x="2369823" y="2458030"/>
+          <a:ext cx="1029707" cy="829458"/>
           <a:chOff x="7734300" y="2811780"/>
           <a:chExt cx="1562100" cy="1264920"/>
         </a:xfrm>
@@ -19223,12 +19430,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1072538" cy="264560"/>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1158074" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="文本框 5">
@@ -19242,8 +19449,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7322820" y="1912620"/>
-          <a:ext cx="1072538" cy="264560"/>
+          <a:off x="5966460" y="1943100"/>
+          <a:ext cx="1158074" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19272,7 +19479,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>4x5x512x13x13</a:t>
+            <a:t>2x(128x4)x13x13</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -19284,21 +19491,21 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>168002</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>98224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>448191</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="48" name="组合 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773ED9B0-3C47-4902-AD04-FB40976B535F}"/>
+        <xdr:cNvPr id="29" name="组合 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{164D2427-EDFA-4D10-8599-BED0C4222858}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19306,1172 +19513,479 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5913120" y="2271122"/>
-          <a:ext cx="3802380" cy="1150258"/>
-          <a:chOff x="4320540" y="2476500"/>
-          <a:chExt cx="5768340" cy="1744980"/>
+          <a:off x="5913120" y="2362453"/>
+          <a:ext cx="1240671" cy="1038244"/>
+          <a:chOff x="7734300" y="2491740"/>
+          <a:chExt cx="1882140" cy="1584960"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="29" name="组合 28">
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="立方体 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{164D2427-EDFA-4D10-8599-BED0C4222858}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4419C657-BC80-48BC-B40E-81A7AB1550DA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="4320540" y="2476500"/>
-            <a:ext cx="2042160" cy="1744980"/>
-            <a:chOff x="7734300" y="2331720"/>
-            <a:chExt cx="2042160" cy="1744980"/>
+            <a:off x="8214360" y="2491740"/>
+            <a:ext cx="1402080" cy="1104900"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="28" name="立方体 27">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA9E131A-DCCE-424E-B6BB-40F6EAB48EA8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8374380" y="2331720"/>
-              <a:ext cx="1402080" cy="1104900"/>
-            </a:xfrm>
-            <a:prstGeom prst="cube">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 14655"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-                <a:t>input</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="立方体 18">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4419C657-BC80-48BC-B40E-81A7AB1550DA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8214360" y="2491740"/>
-              <a:ext cx="1402080" cy="1104900"/>
-            </a:xfrm>
-            <a:prstGeom prst="cube">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 14655"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-                <a:t>input</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="立方体 19">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E023BB-35D9-4C25-A095-29C6CDF7D41B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8054340" y="2651760"/>
-              <a:ext cx="1402080" cy="1104900"/>
-            </a:xfrm>
-            <a:prstGeom prst="cube">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 14655"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="92D050"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-                <a:t>input</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="立方体 20">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0B69F8-9751-42F4-9B57-2E17C830B5CC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7894320" y="2811780"/>
-              <a:ext cx="1402080" cy="1104900"/>
-            </a:xfrm>
-            <a:prstGeom prst="cube">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 14655"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-                <a:t>input</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="立方体 21">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0AFD9E-4150-45B7-AA15-D0DA73A89873}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7734300" y="2971800"/>
-              <a:ext cx="1402080" cy="1104900"/>
-            </a:xfrm>
-            <a:prstGeom prst="cube">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 14655"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFC000"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-                <a:t>img0</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="30" name="组合 29">
+          <a:prstGeom prst="cube">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 14655"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+              <a:t>input</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="立方体 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB00BF2-7AA0-474D-B9A9-96202E1DA131}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E023BB-35D9-4C25-A095-29C6CDF7D41B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="5562600" y="2476500"/>
-            <a:ext cx="2042160" cy="1744980"/>
-            <a:chOff x="7734300" y="2331720"/>
-            <a:chExt cx="2042160" cy="1744980"/>
+            <a:off x="8054340" y="2651760"/>
+            <a:ext cx="1402080" cy="1104900"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="31" name="立方体 30">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3455CD75-0D45-4CBC-98E8-542473381F32}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8374380" y="2331720"/>
-              <a:ext cx="1402080" cy="1104900"/>
-            </a:xfrm>
-            <a:prstGeom prst="cube">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 14655"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-                <a:t>input</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="32" name="立方体 31">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B453792-8147-40BF-A9B2-32874228C16E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8214360" y="2491740"/>
-              <a:ext cx="1402080" cy="1104900"/>
-            </a:xfrm>
-            <a:prstGeom prst="cube">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 14655"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-                <a:t>input</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="33" name="立方体 32">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11590E6-BB04-4D59-B451-145F17912622}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8054340" y="2651760"/>
-              <a:ext cx="1402080" cy="1104900"/>
-            </a:xfrm>
-            <a:prstGeom prst="cube">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 14655"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="92D050"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-                <a:t>input</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="34" name="立方体 33">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7352E25-E533-447C-BE8B-272054918D98}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7894320" y="2811780"/>
-              <a:ext cx="1402080" cy="1104900"/>
-            </a:xfrm>
-            <a:prstGeom prst="cube">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 14655"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-                <a:t>input</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="35" name="立方体 34">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9B2AC79-9AA2-440D-9FE3-7A9842D20D37}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7734300" y="2971800"/>
-              <a:ext cx="1402080" cy="1104900"/>
-            </a:xfrm>
-            <a:prstGeom prst="cube">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 14655"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFC000"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-                <a:t>img1</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="36" name="组合 35">
+          <a:prstGeom prst="cube">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 14655"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+              <a:t>input</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="立方体 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BC0B99-3B79-4848-9E4B-37D8531CB945}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0B69F8-9751-42F4-9B57-2E17C830B5CC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="6804660" y="2476500"/>
-            <a:ext cx="2042160" cy="1744980"/>
-            <a:chOff x="7734300" y="2331720"/>
-            <a:chExt cx="2042160" cy="1744980"/>
+            <a:off x="7894320" y="2811780"/>
+            <a:ext cx="1402080" cy="1104900"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="37" name="立方体 36">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A24D0F8-FC1C-47E3-995B-4E76B9157F8B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8374380" y="2331720"/>
-              <a:ext cx="1402080" cy="1104900"/>
-            </a:xfrm>
-            <a:prstGeom prst="cube">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 14655"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-                <a:t>input</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="38" name="立方体 37">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{403684ED-16FB-408F-AD36-A6AC4883BA1E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8214360" y="2491740"/>
-              <a:ext cx="1402080" cy="1104900"/>
-            </a:xfrm>
-            <a:prstGeom prst="cube">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 14655"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-                <a:t>input</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="39" name="立方体 38">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F69E04-6AD4-4F72-8514-0314EE1D6E61}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8054340" y="2651760"/>
-              <a:ext cx="1402080" cy="1104900"/>
-            </a:xfrm>
-            <a:prstGeom prst="cube">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 14655"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="92D050"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-                <a:t>input</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="40" name="立方体 39">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33825773-0CB9-4990-9AB5-A0E3065A3E4D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7894320" y="2811780"/>
-              <a:ext cx="1402080" cy="1104900"/>
-            </a:xfrm>
-            <a:prstGeom prst="cube">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 14655"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-                <a:t>input</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="41" name="立方体 40">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B56600A7-ADF6-45BD-9455-6CF47CA8386A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7734300" y="2971800"/>
-              <a:ext cx="1402080" cy="1104900"/>
-            </a:xfrm>
-            <a:prstGeom prst="cube">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 14655"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFC000"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-                <a:t>img2</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="42" name="组合 41">
+          <a:prstGeom prst="cube">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 14655"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+              <a:t>input</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="立方体 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D6DA1F3-850F-43B9-87F3-F684A1456D48}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0AFD9E-4150-45B7-AA15-D0DA73A89873}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="8046720" y="2476500"/>
-            <a:ext cx="2042160" cy="1744980"/>
-            <a:chOff x="7734300" y="2331720"/>
-            <a:chExt cx="2042160" cy="1744980"/>
+            <a:off x="7734300" y="2971800"/>
+            <a:ext cx="1402080" cy="1104900"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="43" name="立方体 42">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CBE5E5A-BD81-48BD-8690-7AC3F5EE17B0}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8374380" y="2331720"/>
-              <a:ext cx="1402080" cy="1104900"/>
-            </a:xfrm>
-            <a:prstGeom prst="cube">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 14655"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-                <a:t>input</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="44" name="立方体 43">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60FC9A41-0914-4E3E-AA32-5BF7827B7E8F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8214360" y="2491740"/>
-              <a:ext cx="1402080" cy="1104900"/>
-            </a:xfrm>
-            <a:prstGeom prst="cube">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 14655"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-                <a:t>input</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="45" name="立方体 44">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE5074F0-F2CE-4171-B0E4-FC58C0555BEA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8054340" y="2651760"/>
-              <a:ext cx="1402080" cy="1104900"/>
-            </a:xfrm>
-            <a:prstGeom prst="cube">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 14655"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="92D050"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-                <a:t>input</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="46" name="立方体 45">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52B21EB6-B741-47D7-A268-3DB2898A213F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7894320" y="2811780"/>
-              <a:ext cx="1402080" cy="1104900"/>
-            </a:xfrm>
-            <a:prstGeom prst="cube">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 14655"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-                <a:t>input</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="47" name="立方体 46">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C359B4EA-A3E9-4198-BD10-B27BBE724ABD}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7734300" y="2971800"/>
-              <a:ext cx="1402080" cy="1104900"/>
-            </a:xfrm>
-            <a:prstGeom prst="cube">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 14655"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFC000"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-                <a:t>img3</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
+          <a:prstGeom prst="cube">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 14655"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+              <a:t>img0</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>26262</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>98224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47733</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="组合 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB00BF2-7AA0-474D-B9A9-96202E1DA131}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6731862" y="2362453"/>
+          <a:ext cx="1240671" cy="1038244"/>
+          <a:chOff x="7734300" y="2491740"/>
+          <a:chExt cx="1882140" cy="1584960"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="立方体 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B453792-8147-40BF-A9B2-32874228C16E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8214360" y="2491740"/>
+            <a:ext cx="1402080" cy="1104900"/>
+          </a:xfrm>
+          <a:prstGeom prst="cube">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 14655"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+              <a:t>input</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="立方体 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11590E6-BB04-4D59-B451-145F17912622}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8054340" y="2651760"/>
+            <a:ext cx="1402080" cy="1104900"/>
+          </a:xfrm>
+          <a:prstGeom prst="cube">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 14655"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+              <a:t>input</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="立方体 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7352E25-E533-447C-BE8B-272054918D98}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7894320" y="2811780"/>
+            <a:ext cx="1402080" cy="1104900"/>
+          </a:xfrm>
+          <a:prstGeom prst="cube">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 14655"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+              <a:t>input</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="立方体 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9B2AC79-9AA2-440D-9FE3-7A9842D20D37}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7734300" y="2971800"/>
+            <a:ext cx="1402080" cy="1104900"/>
+          </a:xfrm>
+          <a:prstGeom prst="cube">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 14655"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+              <a:t>img1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -20501,8 +20015,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1645923" y="591130"/>
-          <a:ext cx="1029707" cy="833812"/>
+          <a:off x="1645923" y="587864"/>
+          <a:ext cx="1029707" cy="828369"/>
           <a:chOff x="7734300" y="2811780"/>
           <a:chExt cx="1562100" cy="1264920"/>
         </a:xfrm>
@@ -20644,8 +20158,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2461263" y="591130"/>
-          <a:ext cx="1029707" cy="833812"/>
+          <a:off x="2461263" y="587864"/>
+          <a:ext cx="1029707" cy="828369"/>
           <a:chOff x="7734300" y="2811780"/>
           <a:chExt cx="1562100" cy="1264920"/>
         </a:xfrm>
@@ -20787,8 +20301,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3276603" y="591130"/>
-          <a:ext cx="1029707" cy="833812"/>
+          <a:off x="3276603" y="587864"/>
+          <a:ext cx="1029707" cy="828369"/>
           <a:chOff x="7734300" y="2811780"/>
           <a:chExt cx="1562100" cy="1264920"/>
         </a:xfrm>
@@ -20930,8 +20444,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2164083" y="2679010"/>
-          <a:ext cx="1029707" cy="833812"/>
+          <a:off x="2164083" y="2662681"/>
+          <a:ext cx="1029707" cy="828370"/>
           <a:chOff x="7734300" y="2811780"/>
           <a:chExt cx="1562100" cy="1264920"/>
         </a:xfrm>
@@ -21713,6 +21227,429 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="653962" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="文本框 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DEB8B6A-E641-4148-8A74-4DD6942158F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7330440" y="1950720"/>
+          <a:ext cx="653962" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2x4x1x1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="653962" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="文本框 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F544CEF-C3FD-480B-A0C0-193A1C0AA5F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6492240" y="2606040"/>
+          <a:ext cx="653962" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2x1x1x1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="653962" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="文本框 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E88E813-254D-4040-A2EB-ABAAE9B1C202}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6598920" y="2506980"/>
+          <a:ext cx="653962" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2x1x1x1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="653962" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="文本框 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2CA7D76-1F15-434A-AFDE-963C635BD0C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="2400300"/>
+          <a:ext cx="653962" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2x1x1x1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="653962" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="文本框 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE9CD45-2053-4BC8-BF13-BE85E57F7162}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="2293620"/>
+          <a:ext cx="653962" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2x1x1x1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>71813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="立方体 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD8A84C7-24E0-4E17-B58A-0AA7B2DFE334}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9464040" y="3017520"/>
+          <a:ext cx="373380" cy="384233"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 36375"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>3x3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="653962" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="文本框 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D16A282-E44A-4055-ABDA-C2EF48EDD27E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9258300" y="1981200"/>
+          <a:ext cx="653962" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2x1x1x1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -56902,8 +56839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1382E9-3145-4376-BC78-E746DBF26817}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -56919,8 +56856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03272D86-BBB2-4023-929F-083AF3E23C38}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z47" sqref="Z47"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/notebook.xlsx
+++ b/notebook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Yolo_mkl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B15861A-12DC-4E02-B64A-30FB3771281C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D3F12B-29E2-4425-A7D4-5EE654B2CBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21650,6 +21650,1282 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>413119</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>141513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49AFAAF4-3FC5-490F-A70D-BECD77DFF8E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10961914" y="827314"/>
+          <a:ext cx="7129605" cy="5410199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>402771</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66816CD8-BB4D-461A-BD85-C23723DA97CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11244943" y="5116285"/>
+          <a:ext cx="2569028" cy="10886"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>511629</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>522515</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直接连接符 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03BA68FA-C39D-4648-8C45-66766117FCA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12703629" y="4114800"/>
+          <a:ext cx="10886" cy="1959428"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>21769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>402771</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>32655</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直接连接符 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A67D54-7093-4823-96D1-6A72B285865A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11244943" y="4376055"/>
+          <a:ext cx="2569028" cy="10886"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>522515</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直接连接符 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4035E15D-837E-4951-849A-2985051EDD13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13324115" y="4136572"/>
+          <a:ext cx="10886" cy="1959428"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>598719</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>174170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>119747</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直接连接符 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C29CBA-622A-4B44-A92F-43199C2E99D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14619519" y="5399313"/>
+          <a:ext cx="2569028" cy="10886"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>65319</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>87084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>195947</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97970</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直接连接符 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B73604C9-AFB2-468B-AA04-18C00BF5D3F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14695719" y="4963884"/>
+          <a:ext cx="2569028" cy="10886"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>65315</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>141513</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直接连接符 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF35F4A5-538D-4822-BC26-DCB12E91DEBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="15904029" y="4278085"/>
+          <a:ext cx="10886" cy="1959428"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>446314</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>130627</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="直接连接符 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4201BCFE-BB1E-44BF-9D4A-592D72779F3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="16295914" y="4267199"/>
+          <a:ext cx="10886" cy="1959428"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>32656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>337457</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>110218</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68453440-7D9D-483F-9170-82D5598BDE39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14739256" y="6302827"/>
+          <a:ext cx="3276601" cy="2515962"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>598720</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>141513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>119748</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直接连接符 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{350F8678-953E-43B8-AF9C-4EA3B2CF42E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14619520" y="8153399"/>
+          <a:ext cx="2569028" cy="10886"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>283028</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>65313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>293914</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直接连接符 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC903391-0FBB-4C75-B567-24F8E3CF8F05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="16132628" y="7206342"/>
+          <a:ext cx="10886" cy="1959428"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>283033</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>65312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>413661</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="直接连接符 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD840DD8-935B-4739-8E0D-E49F2C31A00D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14913433" y="7728855"/>
+          <a:ext cx="2569028" cy="10886"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>587828</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>130627</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直接连接符 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F24051-0D4F-4A0A-B16B-B59A4830F69A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="16437428" y="7053942"/>
+          <a:ext cx="10886" cy="1959428"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>108855</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>301653</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3E165D6-8343-4D04-82A8-CD3A5CC36F7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14739255" y="8882742"/>
+          <a:ext cx="3240798" cy="2525486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>141517</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>272145</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直接连接符 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{402D3522-45BE-4001-B483-71AE2A114900}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14771917" y="10733313"/>
+          <a:ext cx="2569028" cy="10886"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>174175</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>21770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304803</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>32656</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="直接连接符 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA97A050-7BC0-4CAE-A3E5-9AC138C27DE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14804575" y="10297884"/>
+          <a:ext cx="2569028" cy="10886"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>391885</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>32656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>402771</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="直接连接符 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1757C68-71C6-4954-9B3D-6FD101000428}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="16241485" y="9612085"/>
+          <a:ext cx="10886" cy="1959428"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>174171</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>185057</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>119741</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="直接连接符 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954D5991-940F-42F0-A938-388A0443C9AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="16633371" y="9481456"/>
+          <a:ext cx="10886" cy="1959428"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>293915</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>495029</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>110657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6893610F-A780-45A1-98C0-4DB31DC11BF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11266715" y="6368143"/>
+          <a:ext cx="3249114" cy="2451085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>348348</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>478976</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>65313</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直接连接符 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A10F729-A73B-4513-A9FE-D35382E8FD37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11321148" y="7892141"/>
+          <a:ext cx="2569028" cy="10886"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>119749</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>250377</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="直接连接符 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41CCB8B-D26E-4C5E-9708-06D4AF9ABBC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11092549" y="7532913"/>
+          <a:ext cx="2569028" cy="10886"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>43542</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>97970</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="直接连接符 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A4A474-4EC6-4A48-B1CD-CD7D3A572999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12845142" y="7021285"/>
+          <a:ext cx="10886" cy="1959428"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>326570</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>32656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>337456</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="直接连接符 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{462719A2-D40D-4589-89E1-32F227F9B49A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13128170" y="6825342"/>
+          <a:ext cx="10886" cy="1959428"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -56839,8 +58115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1382E9-3145-4376-BC78-E746DBF26817}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
